--- a/data/Triangular_Arbitrage.xlsx
+++ b/data/Triangular_Arbitrage.xlsx
@@ -1,32 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eh1618_ic_ac_uk/Documents/Work/Fourth Year/Project/Research/crypto_arbitrage_bot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4339916E062933C50735EBC992D968F957E91A4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299B1452-3E23-4CA4-8810-91AF16E85431}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Binance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="binance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Arbitrage Direction</t>
+  </si>
+  <si>
+    <t>Cryptocurrency Pairs</t>
+  </si>
+  <si>
+    <t>Initial Investment</t>
+  </si>
+  <si>
+    <t>Profit/Loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -41,93 +75,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -452,42 +439,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.4140625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.9140625" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>00:22:31</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>binance</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>BUY -&gt; SELL -&gt; SELL</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>{'TCT/USDT', 'BTC/USDT', 'TCT/BTC'}</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2.0585</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Triangular_Arbitrage.xlsx
+++ b/data/Triangular_Arbitrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eh1618_ic_ac_uk/Documents/Work/Fourth Year/Project/Research/crypto_arbitrage_bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4339916E062933C50735EBC992D968F957E91A4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{299B1452-3E23-4CA4-8810-91AF16E85431}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7651817E434F3999099674115EF74074535DC269" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33C60556-1973-4703-AF99-DF98452F5F5C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Time</t>
   </si>
@@ -38,6 +38,123 @@
   </si>
   <si>
     <t>Profit/Loss</t>
+  </si>
+  <si>
+    <t>binance</t>
+  </si>
+  <si>
+    <t>BUY -&gt; SELL -&gt; SELL</t>
+  </si>
+  <si>
+    <t>01:03:23</t>
+  </si>
+  <si>
+    <t>BUY -&gt; BUY -&gt; SELL</t>
+  </si>
+  <si>
+    <t>BUSD/USDT -&gt; RLC/BUSD -&gt; RLC/USDT</t>
+  </si>
+  <si>
+    <t>01:03:35</t>
+  </si>
+  <si>
+    <t>SC/USDT -&gt; SC/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:05:04</t>
+  </si>
+  <si>
+    <t>RGT/USDT -&gt; RGT/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:05:34</t>
+  </si>
+  <si>
+    <t>KSM/USDT -&gt; KSM/ETH -&gt; ETH/USDT</t>
+  </si>
+  <si>
+    <t>01:05:40</t>
+  </si>
+  <si>
+    <t>BTC/USDT -&gt; AMP/BTC -&gt; AMP/USDT</t>
+  </si>
+  <si>
+    <t>01:08:41</t>
+  </si>
+  <si>
+    <t>REEF/USDT -&gt; REEF/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:08:51</t>
+  </si>
+  <si>
+    <t>AVAX/USDT -&gt; AVAX/AUD -&gt; AUD/USDT</t>
+  </si>
+  <si>
+    <t>01:09:25</t>
+  </si>
+  <si>
+    <t>BICO/USDT -&gt; BICO/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:09:56</t>
+  </si>
+  <si>
+    <t>JASMY/USDT -&gt; JASMY/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:12:38</t>
+  </si>
+  <si>
+    <t>STPT/USDT -&gt; STPT/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:13:20</t>
+  </si>
+  <si>
+    <t>BTC/USDT -&gt; XVG/BTC -&gt; XVG/USDT</t>
+  </si>
+  <si>
+    <t>01:13:41</t>
+  </si>
+  <si>
+    <t>RSR/USDT -&gt; RSR/BTC -&gt; BTC/USDT</t>
+  </si>
+  <si>
+    <t>01:13:56</t>
+  </si>
+  <si>
+    <t>LINA/USDT -&gt; LINA/BNB -&gt; BNB/USDT</t>
+  </si>
+  <si>
+    <t>01:14:06</t>
+  </si>
+  <si>
+    <t>BTC/USDT -&gt; WNXM/BTC -&gt; WNXM/USDT</t>
+  </si>
+  <si>
+    <t>01:15:18</t>
+  </si>
+  <si>
+    <t>MC/USDT -&gt; MC/BNB -&gt; BNB/USDT</t>
+  </si>
+  <si>
+    <t>01:15:41</t>
+  </si>
+  <si>
+    <t>BTC/USDT -&gt; ANY/BTC -&gt; ANY/USDT</t>
+  </si>
+  <si>
+    <t>01:15:45</t>
+  </si>
+  <si>
+    <t>BTC/USDT -&gt; LINA/BTC -&gt; LINA/USDT</t>
+  </si>
+  <si>
+    <t>01:15:52</t>
+  </si>
+  <si>
+    <t>KAVA/USDT -&gt; KAVA/ETH -&gt; ETH/USDT</t>
   </si>
 </sst>
 </file>
@@ -440,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -475,6 +592,366 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>10.0162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>110.0162</v>
+      </c>
+      <c r="F3">
+        <v>0.90269999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>110.91889999999999</v>
+      </c>
+      <c r="F4">
+        <v>11.8436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>122.7625</v>
+      </c>
+      <c r="F5">
+        <v>1.0805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>123.843</v>
+      </c>
+      <c r="F6">
+        <v>1.6544000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>125.4974</v>
+      </c>
+      <c r="F7">
+        <v>2.6732999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>128.17070000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.88929999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>129.06</v>
+      </c>
+      <c r="F9">
+        <v>0.88009999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>129.9401</v>
+      </c>
+      <c r="F10">
+        <v>2.0360999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>131.97620000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.89670000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>132.87289999999999</v>
+      </c>
+      <c r="F12">
+        <v>3.0861999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>135.95910000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.7051000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>137.66419999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>139.08920000000001</v>
+      </c>
+      <c r="F15">
+        <v>21.613099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>160.70230000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>161.6885</v>
+      </c>
+      <c r="F17">
+        <v>20.3491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>182.0376</v>
+      </c>
+      <c r="F18">
+        <v>1.3248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>183.36240000000001</v>
+      </c>
+      <c r="F19">
+        <v>2.4201999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
